--- a/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO_REC150.xlsx
+++ b/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO_REC150.xlsx
@@ -517,9 +517,6 @@
     <t>Horizontal</t>
   </si>
   <si>
-    <t>CN_08_01_REC150</t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
@@ -545,6 +542,9 @@
   </si>
   <si>
     <t>Mono</t>
+  </si>
+  <si>
+    <t>CN_03_04_REC150</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2270,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2373,7 +2373,7 @@
         <v>Motor del recurso</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="70"/>
@@ -2399,7 +2399,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>39</v>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC150_IMG01.jpg</v>
+        <v>CN_03_04_REC150_IMG01.jpg</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2501,7 +2501,7 @@
         <v/>
       </c>
       <c r="J10" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC150_IMG02.jpg</v>
+        <v>CN_03_04_REC150_IMG02.jpg</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2540,7 +2540,7 @@
         <v/>
       </c>
       <c r="J11" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K11" s="15"/>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC150_IMG03.jpg</v>
+        <v>CN_03_04_REC150_IMG03.jpg</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2579,7 +2579,7 @@
         <v/>
       </c>
       <c r="J12" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC150_IMG04.jpg</v>
+        <v>CN_03_04_REC150_IMG04.jpg</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2618,7 +2618,7 @@
         <v/>
       </c>
       <c r="J13" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC150_IMG05.jpg</v>
+        <v>CN_03_04_REC150_IMG05.jpg</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2657,7 +2657,7 @@
         <v/>
       </c>
       <c r="J14" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC150_IMG06.jpg</v>
+        <v>CN_03_04_REC150_IMG06.jpg</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2696,7 +2696,7 @@
         <v/>
       </c>
       <c r="J15" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K15" s="21"/>
     </row>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC150_IMG07.jpg</v>
+        <v>CN_03_04_REC150_IMG07.jpg</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2735,7 +2735,7 @@
         <v/>
       </c>
       <c r="J16" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K16" s="30"/>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC150_IMG08.jpg</v>
+        <v>CN_03_04_REC150_IMG08.jpg</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2774,7 +2774,7 @@
         <v/>
       </c>
       <c r="J17" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" s="21"/>
     </row>
